--- a/bible_study/bible_study.xlsx
+++ b/bible_study/bible_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40A4E4F-F77A-497A-979F-D73A4EDD14F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604A6AB-BC23-4B39-A219-AC468E11BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{744EB0FF-2C08-4E68-8D6C-DA5D8FE952EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744EB0FF-2C08-4E68-8D6C-DA5D8FE952EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -49,12 +49,21 @@
   <si>
     <t>Lead</t>
   </si>
+  <si>
+    <t>Nkauj Qhuas Vajtswv 40: 12-13</t>
+  </si>
+  <si>
+    <t>Sheng</t>
+  </si>
+  <si>
+    <t>Cia siab rau Vajtswv thaum yus muaj kev nyuab siab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +184,26 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -185,26 +214,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -250,23 +259,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -304,13 +313,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FD5C63-6A9B-41DE-897F-C267E032B5A0}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FD5C63-6A9B-41DE-897F-C267E032B5A0}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D15" xr:uid="{89FD5C63-6A9B-41DE-897F-C267E032B5A0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1BAB7C3F-15D6-4F31-91A9-36CCF2EB5EC0}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{48652CBA-2BD1-4F89-9F3A-56F6C5F698D4}" name="Bible Verse" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6A23C47D-F934-4214-9C49-1F6C639CE27F}" name="Lead" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{24313384-6889-4417-8489-414AF1CB6858}" name="Message" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6A23C47D-F934-4214-9C49-1F6C639CE27F}" name="Lead" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{24313384-6889-4417-8489-414AF1CB6858}" name="Message" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,18 +645,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>45925</v>
       </c>
@@ -669,7 +678,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <f>A2+7</f>
         <v>45932</v>
@@ -678,16 +687,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A16" si="0">A3+7</f>
+        <f t="shared" ref="A4:A15" si="0">A3+7</f>
         <v>45939</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>45946</v>
@@ -696,7 +705,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>45953</v>
@@ -705,16 +714,22 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>45960</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>45967</v>
@@ -723,7 +738,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -732,7 +747,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>45981</v>
@@ -741,7 +756,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>45988</v>
@@ -750,7 +765,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>45995</v>
@@ -759,7 +774,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>46002</v>
@@ -768,7 +783,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>46009</v>
@@ -777,7 +792,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>46016</v>
